--- a/Machine_learning_simulations/Deterministic models_results.xlsx
+++ b/Machine_learning_simulations/Deterministic models_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Freedom\Desktop\Master_rad_mod\Machine_learning_simulations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Freedom\Documents\GitHub\M21_paper_optimal_maintenance_strategy\Machine_learning_simulations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F6EA72-4DDF-431F-A30D-AEE1A11DBC90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71ECC2B-E8DA-4A8F-A526-9DAD6E2B1B82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Samo vreme Rada" sheetId="4" r:id="rId1"/>
@@ -30,9 +30,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
-    <t>Ime simulacije</t>
-  </si>
-  <si>
     <t>NN_Vreme_trajanje_rada</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>SUM Derministickih modela</t>
+  </si>
+  <si>
+    <t>Ime modela</t>
   </si>
 </sst>
 </file>
@@ -501,9 +501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2F854D-1845-49A2-A8B8-C1B202F0D369}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -515,21 +513,21 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1">
         <v>20288.751723345587</v>
@@ -540,7 +538,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1">
         <v>20891.0027142693</v>
@@ -551,7 +549,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1">
         <v>21148.863783892462</v>
@@ -562,7 +560,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>71809.038430606612</v>
@@ -573,7 +571,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>73772.84673713235</v>
@@ -584,7 +582,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1">
         <v>72973.140625</v>
@@ -595,7 +593,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1">
         <v>99796.8046875</v>
@@ -606,7 +604,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <v>298591.83186406409</v>
@@ -618,7 +616,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1">
         <v>112001.9609375</v>
@@ -629,7 +627,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14">
         <f>COUNT(C2:C10)</f>
@@ -648,9 +646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -660,21 +656,21 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1">
         <v>17054.586969549007</v>
@@ -685,7 +681,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1">
         <v>16260.95010653409</v>
@@ -696,7 +692,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1">
         <v>14944.008646382914</v>
@@ -707,7 +703,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>25943.044921875</v>
@@ -719,7 +715,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
         <v>22185.615234375</v>
@@ -731,7 +727,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1">
         <v>21694.190242991728</v>
@@ -742,7 +738,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1">
         <v>21581.899370978859</v>
@@ -753,7 +749,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
         <v>21430.984375</v>
@@ -764,7 +760,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1">
         <v>2108436.25</v>
@@ -778,7 +774,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="1">
         <v>99796.8046875</v>
@@ -789,7 +785,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1">
         <v>175730.107421875</v>
@@ -801,7 +797,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1">
         <v>490999.1875</v>
@@ -813,7 +809,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16">
         <f>COUNT(C2:C13)</f>
@@ -833,9 +829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A234AD-8B8A-4DDE-AB6B-67B4620575F1}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -847,21 +841,21 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1">
         <v>42811.76941802536</v>
@@ -872,7 +866,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>43943.889086111478</v>
@@ -886,7 +880,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>43707.535355083513</v>
@@ -900,7 +894,7 @@
     </row>
     <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1">
         <v>42066.334275595073</v>
@@ -911,7 +905,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1">
         <v>42370.479857120714</v>
@@ -922,7 +916,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1">
         <v>42531.463669044388</v>
@@ -933,7 +927,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1">
         <v>42487.240648987383</v>
@@ -944,7 +938,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1">
         <v>42176.677111639496</v>
@@ -955,7 +949,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>47405.131768624073</v>
@@ -969,7 +963,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1">
         <v>45320.699888570001</v>
@@ -980,7 +974,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1">
         <v>34836.547780797104</v>
@@ -991,7 +985,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>41666.466951000002</v>
@@ -1002,7 +996,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16">
         <f>COUNT(C2:C13)</f>
@@ -1022,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AD0001-951E-4EE9-A737-E81628E86FCF}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1034,21 +1028,21 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1">
         <v>42487.240648987383</v>
@@ -1059,7 +1053,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1">
         <v>42370.479857120714</v>
@@ -1070,7 +1064,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1">
         <v>42066.334275595073</v>
@@ -1081,7 +1075,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <f>COUNT(C2:C4)</f>
@@ -1090,7 +1084,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <f>3+12+12+9</f>
